--- a/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_07_beg.xlsx
+++ b/story/Activity Story 活动剧情/act3d0 Heart of Surging Flame 蓝火之心 青く燃ゆる心/level_act3d0_07_beg.xlsx
@@ -304,7 +304,7 @@
 </t>
   </si>
   <si>
-    <t xml:space="preserve">[Decision(options="Your depravity knows no bounds.;In your dreams!;Don’t underestimate Rhodes Island.",values="1;2;3")]
+    <t xml:space="preserve">[Decision(options="Your depravity knows no bounds.;In your dreams!;Don't underestimate Rhodes Island.",values="1;2;3")]
 </t>
   </si>
   <si>
